--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1809.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1809.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165394733731462</v>
+        <v>0.8806694746017456</v>
       </c>
       <c r="B1">
-        <v>2.338588360820709</v>
+        <v>1.619658350944519</v>
       </c>
       <c r="C1">
-        <v>3.702345003137986</v>
+        <v>6.061868667602539</v>
       </c>
       <c r="D1">
-        <v>3.124679363091706</v>
+        <v>1.861445188522339</v>
       </c>
       <c r="E1">
-        <v>1.162839820506498</v>
+        <v>1.122338652610779</v>
       </c>
     </row>
   </sheetData>
